--- a/excel2json/excel/BuffConfig.xlsx
+++ b/excel2json/excel/BuffConfig.xlsx
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -177,6 +177,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -186,53 +252,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,42 +276,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -289,25 +298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,187 +333,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,32 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,26 +542,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +584,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -624,6 +613,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,16 +644,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,115 +662,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/excel2json/excel/BuffConfig.xlsx
+++ b/excel2json/excel/BuffConfig.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>编号</t>
   </si>
@@ -155,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -169,14 +169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -186,6 +178,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +207,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -214,13 +236,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -232,29 +247,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,48 +258,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +333,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,31 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,115 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +524,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,30 +562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,17 +584,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,13 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,13 +1126,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
@@ -1221,6 +1221,86 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
